--- a/Doc/功能拆解-进度.xlsx
+++ b/Doc/功能拆解-进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,59 +142,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,9 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +210,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,9 +270,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,44 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,175 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,11 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +625,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,41 +683,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,145 +691,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -867,10 +867,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -991,8 +991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1851660" y="4937760"/>
-          <a:ext cx="4602480" cy="3901440"/>
+          <a:off x="2057400" y="4629150"/>
+          <a:ext cx="5028565" cy="3661410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,18 +1297,18 @@
   <sheetPr/>
   <dimension ref="B5:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="23.5583333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="14.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="50.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.5583333333333" customWidth="1"/>
+    <col min="9" max="9" width="50.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:9">
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -1388,7 +1388,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9">
@@ -1407,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I10" s="19"/>
     </row>
@@ -1454,7 +1454,7 @@
       <c r="G13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
         <v>0</v>
       </c>
       <c r="I13" s="20"/>
@@ -1472,7 +1472,7 @@
       <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
         <v>0</v>
       </c>
       <c r="I14" s="20"/>
@@ -1490,7 +1490,7 @@
       <c r="G15" s="10">
         <v>35</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>0.3</v>
       </c>
       <c r="I15" s="20" t="s">
@@ -1510,7 +1510,7 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <v>0</v>
       </c>
       <c r="I16" s="20"/>
@@ -1522,7 +1522,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:9">
@@ -1673,7 +1673,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1690,7 +1690,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/功能拆解-进度.xlsx
+++ b/Doc/功能拆解-进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>模块</t>
   </si>
@@ -36,6 +36,9 @@
     <t>注备</t>
   </si>
   <si>
+    <t>负责人</t>
+  </si>
+  <si>
     <t>功能划分</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>2,匹配页UI</t>
   </si>
   <si>
+    <t>zfj</t>
+  </si>
+  <si>
     <t>3,角色选择UI</t>
   </si>
   <si>
@@ -72,6 +78,9 @@
     <t>4，操作引导</t>
   </si>
   <si>
+    <t>5，模型动作对接</t>
+  </si>
+  <si>
     <t>5,其他公共</t>
   </si>
   <si>
@@ -105,7 +114,7 @@
     <t>现成的，需要按照需求整合</t>
   </si>
   <si>
-    <t>总耗时至少：90小时</t>
+    <t>总耗时至少：100小时</t>
   </si>
 </sst>
 </file>
@@ -114,8 +123,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -155,44 +164,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -209,18 +204,53 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,44 +278,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,181 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,11 +601,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,32 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,21 +698,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,10 +706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,137 +718,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,12 +882,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -889,6 +904,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -966,15 +984,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -991,7 +1009,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1851660" y="4937760"/>
+          <a:off x="2179320" y="5737860"/>
           <a:ext cx="4602480" cy="3901440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1295,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:I25"/>
+  <dimension ref="B5:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1311,7 +1329,7 @@
     <col min="9" max="9" width="50.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:10">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -1332,14 +1350,17 @@
       <c r="I5" s="18" t="s">
         <v>5</v>
       </c>
+      <c r="J5" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6">
@@ -1351,7 +1372,7 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="3"/>
@@ -1361,13 +1382,13 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10">
@@ -1377,9 +1398,12 @@
         <v>3</v>
       </c>
       <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="3"/>
@@ -1388,17 +1412,17 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="6">
         <v>2</v>
@@ -1409,14 +1433,14 @@
       <c r="H10" s="8">
         <v>0</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6">
         <v>0.5</v>
@@ -1427,7 +1451,7 @@
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="3"/>
@@ -1437,16 +1461,16 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1454,17 +1478,17 @@
       <c r="G13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
         <v>0</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1472,17 +1496,17 @@
       <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
         <v>0</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1490,11 +1514,11 @@
       <c r="G15" s="10">
         <v>35</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>0.3</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>16</v>
+      <c r="I15" s="21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1502,7 +1526,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F16" s="10">
         <v>0.5</v>
@@ -1510,29 +1534,35 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="20"/>
+      <c r="G17" s="10">
+        <v>10</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -1543,14 +1573,14 @@
       <c r="H18" s="7">
         <v>0.5</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F19" s="6">
         <v>0.5</v>
@@ -1561,14 +1591,14 @@
       <c r="H19" s="7">
         <v>0.8</v>
       </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
@@ -1579,14 +1609,14 @@
       <c r="H20" s="7">
         <v>0.9</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -1597,8 +1627,8 @@
       <c r="H21" s="7">
         <v>0.8</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>23</v>
+      <c r="I21" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -1606,7 +1636,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -1617,18 +1647,18 @@
       <c r="H22" s="8">
         <v>0</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>25</v>
+      <c r="I22" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F23" s="16">
         <v>0</v>
@@ -1639,13 +1669,13 @@
       <c r="H23" s="17">
         <v>0.9</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>28</v>
+      <c r="I23" s="22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <f>SUM(F6,F8,F10,F11,F12,F13,F14,F7,F9,F15,F16,F17,F18,F19,F20,F21,F22,F23)</f>
@@ -1653,7 +1683,7 @@
       </c>
       <c r="G25">
         <f>SUM(G6,G7,G8,G9,G10,G11,G12,G13,G15,G14,G16,G18,G17,G19,G20,G21,G22,G23)</f>
-        <v>80.5</v>
+        <v>90.5</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/功能拆解-进度.xlsx
+++ b/Doc/功能拆解-进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>模块</t>
   </si>
@@ -57,6 +57,9 @@
     <t>3个标签</t>
   </si>
   <si>
+    <t>缺少逻辑补充</t>
+  </si>
+  <si>
     <t>广告弹窗</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>1，设置</t>
   </si>
   <si>
+    <t>改版</t>
+  </si>
+  <si>
     <t>2，加载页</t>
   </si>
   <si>
@@ -114,7 +120,7 @@
     <t>现成的，需要按照需求整合</t>
   </si>
   <si>
-    <t>总耗时至少：100小时</t>
+    <t>总耗时预估：100小时</t>
   </si>
 </sst>
 </file>
@@ -122,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +157,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="3" tint="0.6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,38 +171,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,54 +245,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,23 +270,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,181 +346,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +614,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,74 +711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,31 +731,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,104 +770,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +926,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -1316,7 +1335,7 @@
   <dimension ref="B5:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1415,7 +1434,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:10">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
@@ -1430,17 +1449,22 @@
       <c r="G10" s="6">
         <v>5</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20"/>
+      <c r="H10" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6">
         <v>0.5</v>
@@ -1463,14 +1487,14 @@
       <c r="H12" s="8"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:10">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="10">
         <v>1</v>
@@ -1478,17 +1502,22 @@
       <c r="G13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="H13" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="10">
         <v>1</v>
@@ -1496,17 +1525,22 @@
       <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21"/>
+      <c r="H14" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
@@ -1518,15 +1552,15 @@
         <v>0.3</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="10">
         <v>0.5</v>
@@ -1534,35 +1568,38 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21"/>
+      <c r="H16" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10">
         <v>10</v>
       </c>
       <c r="H17" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:10">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -1573,14 +1610,19 @@
       <c r="H18" s="7">
         <v>0.5</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6">
         <v>0.5</v>
@@ -1598,7 +1640,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="6">
         <v>0.5</v>
@@ -1616,7 +1658,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -1628,7 +1670,7 @@
         <v>0.8</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -1636,7 +1678,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -1648,17 +1690,17 @@
         <v>0</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23" s="16">
         <v>0</v>
@@ -1669,13 +1711,13 @@
       <c r="H23" s="17">
         <v>0.9</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>31</v>
+      <c r="I23" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <f>SUM(F6,F8,F10,F11,F12,F13,F14,F7,F9,F15,F16,F17,F18,F19,F20,F21,F22,F23)</f>

--- a/Doc/功能拆解-进度.xlsx
+++ b/Doc/功能拆解-进度.xlsx
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,7 +171,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,62 +230,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,38 +262,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,13 +346,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,163 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,11 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +634,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +662,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +678,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,8 +1334,8 @@
   <sheetPr/>
   <dimension ref="B5:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1417,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" t="s">
@@ -1450,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="7">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>13</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="20"/>
     </row>
@@ -1569,7 +1569,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" t="s">
@@ -1588,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="11">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I17" s="21"/>
     </row>
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>24</v>
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I19" s="20"/>
     </row>
